--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H2">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I2">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J2">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N2">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O2">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P2">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q2">
-        <v>42.894856842496</v>
+        <v>55.69609287980333</v>
       </c>
       <c r="R2">
-        <v>257.369141054976</v>
+        <v>334.17655727882</v>
       </c>
       <c r="S2">
-        <v>0.1999347659774911</v>
+        <v>0.3584470517170645</v>
       </c>
       <c r="T2">
-        <v>0.1768440727181033</v>
+        <v>0.3553018923089773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H3">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I3">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J3">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.501076</v>
       </c>
       <c r="O3">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P3">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q3">
-        <v>3.774635740979111</v>
+        <v>5.770657725708888</v>
       </c>
       <c r="R3">
-        <v>33.97172166881199</v>
+        <v>51.93591953137999</v>
       </c>
       <c r="S3">
-        <v>0.01759373894856478</v>
+        <v>0.03713860598287547</v>
       </c>
       <c r="T3">
-        <v>0.023342727074942</v>
+        <v>0.05521910524953399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H4">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I4">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J4">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N4">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O4">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P4">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q4">
-        <v>0.05364700461477777</v>
+        <v>0.02219119275333333</v>
       </c>
       <c r="R4">
-        <v>0.4828230415329999</v>
+        <v>0.19972073478</v>
       </c>
       <c r="S4">
-        <v>0.0002500509875212548</v>
+        <v>0.000142817336104412</v>
       </c>
       <c r="T4">
-        <v>0.0003317584723515821</v>
+        <v>0.0002123462985509991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H5">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I5">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J5">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N5">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O5">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P5">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q5">
-        <v>1.0209640878565</v>
+        <v>2.057872423416667</v>
       </c>
       <c r="R5">
-        <v>6.125784527139</v>
+        <v>12.3472345405</v>
       </c>
       <c r="S5">
-        <v>0.004758757366332643</v>
+        <v>0.01324398651401702</v>
       </c>
       <c r="T5">
-        <v>0.004209163071890576</v>
+        <v>0.01312777841972358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H6">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I6">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J6">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N6">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O6">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P6">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q6">
-        <v>25.35778281159723</v>
+        <v>0.07255426376111111</v>
       </c>
       <c r="R6">
-        <v>228.220045304375</v>
+        <v>0.65298837385</v>
       </c>
       <c r="S6">
-        <v>0.1181937123781697</v>
+        <v>0.0004669423040283533</v>
       </c>
       <c r="T6">
-        <v>0.1568150793918012</v>
+        <v>0.0006942677450922782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H7">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I7">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J7">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N7">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O7">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P7">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q7">
-        <v>0.09749420295033334</v>
+        <v>0.09358339643777776</v>
       </c>
       <c r="R7">
-        <v>0.877447826553</v>
+        <v>0.8422505679399999</v>
       </c>
       <c r="S7">
-        <v>0.0004544246580099479</v>
+        <v>0.0006022808927581837</v>
       </c>
       <c r="T7">
-        <v>0.0006029139570082906</v>
+        <v>0.0008954943549128463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H8">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I8">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J8">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N8">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O8">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P8">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q8">
-        <v>21.829781079936</v>
+        <v>14.758717724179</v>
       </c>
       <c r="R8">
-        <v>87.31912431974399</v>
+        <v>59.034870896716</v>
       </c>
       <c r="S8">
-        <v>0.1017495451163954</v>
+        <v>0.09498366190197696</v>
       </c>
       <c r="T8">
-        <v>0.05999891637196478</v>
+        <v>0.06276682455711195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H9">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I9">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J9">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>27.501076</v>
       </c>
       <c r="O9">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P9">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q9">
-        <v>1.920963909138</v>
+        <v>1.529146912340667</v>
       </c>
       <c r="R9">
-        <v>11.525783454828</v>
+        <v>9.174881474044</v>
       </c>
       <c r="S9">
-        <v>0.008953695102304579</v>
+        <v>0.009841232553846242</v>
       </c>
       <c r="T9">
-        <v>0.007919622683060226</v>
+        <v>0.009754881599066076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H10">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I10">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J10">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N10">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O10">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P10">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q10">
-        <v>0.02730169657949999</v>
+        <v>0.005880368494</v>
       </c>
       <c r="R10">
-        <v>0.163810179477</v>
+        <v>0.035282210964</v>
       </c>
       <c r="S10">
-        <v>0.00012725437775568</v>
+        <v>3.784467887600336E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001125576251008592</v>
+        <v>3.751261435701032E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H11">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I11">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J11">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N11">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O11">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P11">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q11">
-        <v>0.51958262992275</v>
+        <v>0.545308595975</v>
       </c>
       <c r="R11">
-        <v>2.078330519691</v>
+        <v>2.1812343839</v>
       </c>
       <c r="S11">
-        <v>0.002421796904487106</v>
+        <v>0.003509478823317792</v>
       </c>
       <c r="T11">
-        <v>0.001428067219130903</v>
+        <v>0.002319123491126453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H12">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I12">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J12">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N12">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O12">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P12">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q12">
-        <v>12.9049235315625</v>
+        <v>0.01922590693833334</v>
       </c>
       <c r="R12">
-        <v>77.429541189375</v>
+        <v>0.11535544163</v>
       </c>
       <c r="S12">
-        <v>0.06015040161374813</v>
+        <v>0.0001237334488346352</v>
       </c>
       <c r="T12">
-        <v>0.05320356339728504</v>
+        <v>0.0001226477615097343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H13">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I13">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J13">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N13">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O13">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P13">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q13">
-        <v>0.04961613730949999</v>
+        <v>0.02479834509533333</v>
       </c>
       <c r="R13">
-        <v>0.297696823857</v>
+        <v>0.148790070572</v>
       </c>
       <c r="S13">
-        <v>0.0002312629422708365</v>
+        <v>0.0001595963599469627</v>
       </c>
       <c r="T13">
-        <v>0.0002045541223408371</v>
+        <v>0.0001581959969349665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H14">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I14">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J14">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N14">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O14">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P14">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q14">
-        <v>60.99835760025599</v>
+        <v>45.39085362317467</v>
       </c>
       <c r="R14">
-        <v>365.990145601536</v>
+        <v>272.345121739048</v>
       </c>
       <c r="S14">
-        <v>0.2843159588246069</v>
+        <v>0.2921249375833281</v>
       </c>
       <c r="T14">
-        <v>0.2514799857417323</v>
+        <v>0.2895617152290756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H15">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I15">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J15">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.501076</v>
       </c>
       <c r="O15">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P15">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q15">
-        <v>5.367696681781333</v>
+        <v>4.702934561359111</v>
       </c>
       <c r="R15">
-        <v>48.309270136032</v>
+        <v>42.326411052232</v>
       </c>
       <c r="S15">
-        <v>0.02501906426336167</v>
+        <v>0.03026698895334455</v>
       </c>
       <c r="T15">
-        <v>0.03319437616287512</v>
+        <v>0.04500212122587088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H16">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I16">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J16">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N16">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O16">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P16">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q16">
-        <v>0.07628838076533331</v>
+        <v>0.01808523955466667</v>
       </c>
       <c r="R16">
-        <v>0.6865954268879999</v>
+        <v>0.162767155992</v>
       </c>
       <c r="S16">
-        <v>0.0003555834120422516</v>
+        <v>0.0001163923798381527</v>
       </c>
       <c r="T16">
-        <v>0.0004717750197354172</v>
+        <v>0.0001730566590326575</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H17">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I17">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J17">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N17">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O17">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P17">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q17">
-        <v>1.451855469684</v>
+        <v>1.677112004033334</v>
       </c>
       <c r="R17">
-        <v>8.711132818104</v>
+        <v>10.0626720242</v>
       </c>
       <c r="S17">
-        <v>0.006767160562634952</v>
+        <v>0.01079350134204905</v>
       </c>
       <c r="T17">
-        <v>0.005985613501397882</v>
+        <v>0.01069879479576968</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H18">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I18">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J18">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N18">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O18">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P18">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q18">
-        <v>36.05987332166666</v>
+        <v>0.0591298203488889</v>
       </c>
       <c r="R18">
-        <v>324.538859895</v>
+        <v>0.53216838314</v>
       </c>
       <c r="S18">
-        <v>0.1680766148775863</v>
+        <v>0.0003805457201164763</v>
       </c>
       <c r="T18">
-        <v>0.2229978835219495</v>
+        <v>0.0005658099870808463</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.539082</v>
+      </c>
+      <c r="I19">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J19">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1486626666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.4459879999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.00146882845125861</v>
+      </c>
+      <c r="P19">
+        <v>0.002104812536057093</v>
+      </c>
+      <c r="Q19">
+        <v>0.07626801144622222</v>
+      </c>
+      <c r="R19">
+        <v>0.686412103016</v>
+      </c>
+      <c r="S19">
+        <v>0.0004908431171683691</v>
+      </c>
+      <c r="T19">
+        <v>0.0007298043917002992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J20">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>88.476482</v>
+      </c>
+      <c r="N20">
+        <v>176.952964</v>
+      </c>
+      <c r="O20">
+        <v>0.8741722245589811</v>
+      </c>
+      <c r="P20">
+        <v>0.8351184716173069</v>
+      </c>
+      <c r="Q20">
+        <v>19.98465486391067</v>
+      </c>
+      <c r="R20">
+        <v>119.907929183464</v>
+      </c>
+      <c r="S20">
+        <v>0.1286165733566115</v>
+      </c>
+      <c r="T20">
+        <v>0.1274880395221421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J21">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.167025333333333</v>
+      </c>
+      <c r="N21">
+        <v>27.501076</v>
+      </c>
+      <c r="O21">
+        <v>0.09057275726931067</v>
+      </c>
+      <c r="P21">
+        <v>0.12978961209687</v>
+      </c>
+      <c r="Q21">
+        <v>2.070604902841778</v>
+      </c>
+      <c r="R21">
+        <v>18.635444125576</v>
+      </c>
+      <c r="S21">
+        <v>0.01332592977924441</v>
+      </c>
+      <c r="T21">
+        <v>0.01981350402239905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J22">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.035252</v>
+      </c>
+      <c r="N22">
+        <v>0.105756</v>
+      </c>
+      <c r="O22">
+        <v>0.0003482995544528228</v>
+      </c>
+      <c r="P22">
+        <v>0.0004991088427564282</v>
+      </c>
+      <c r="Q22">
+        <v>0.007962557250666667</v>
+      </c>
+      <c r="R22">
+        <v>0.071663015256</v>
+      </c>
+      <c r="S22">
+        <v>5.124515963425475E-05</v>
+      </c>
+      <c r="T22">
+        <v>7.619327081576132E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J23">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.26905</v>
+      </c>
+      <c r="N23">
+        <v>6.5381</v>
+      </c>
+      <c r="O23">
+        <v>0.0322991222762964</v>
+      </c>
+      <c r="P23">
+        <v>0.03085615496828363</v>
+      </c>
+      <c r="Q23">
+        <v>0.7383977584333333</v>
+      </c>
+      <c r="R23">
+        <v>4.430386550600001</v>
+      </c>
+      <c r="S23">
+        <v>0.00475215559691253</v>
+      </c>
+      <c r="T23">
+        <v>0.004710458261663916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.585544</v>
-      </c>
-      <c r="H19">
-        <v>1.756632</v>
-      </c>
-      <c r="I19">
-        <v>0.4851805936269489</v>
-      </c>
-      <c r="J19">
-        <v>0.5149870038950203</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.236773</v>
-      </c>
-      <c r="N19">
-        <v>0.710319</v>
-      </c>
-      <c r="O19">
-        <v>0.00133189928699758</v>
-      </c>
-      <c r="P19">
-        <v>0.00166483802667909</v>
-      </c>
-      <c r="Q19">
-        <v>0.138641009512</v>
-      </c>
-      <c r="R19">
-        <v>1.247769085608</v>
-      </c>
-      <c r="S19">
-        <v>0.000646211686716796</v>
-      </c>
-      <c r="T19">
-        <v>0.0008573699473299625</v>
+      <c r="G24">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J24">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1152566666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.34577</v>
+      </c>
+      <c r="O24">
+        <v>0.001138767889700372</v>
+      </c>
+      <c r="P24">
+        <v>0.001631839938725842</v>
+      </c>
+      <c r="Q24">
+        <v>0.02603363800222222</v>
+      </c>
+      <c r="R24">
+        <v>0.23430274202</v>
+      </c>
+      <c r="S24">
+        <v>0.0001675464167209072</v>
+      </c>
+      <c r="T24">
+        <v>0.0002491144450429838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J25">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1486626666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.4459879999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.00146882845125861</v>
+      </c>
+      <c r="P25">
+        <v>0.002104812536057093</v>
+      </c>
+      <c r="Q25">
+        <v>0.03357922938755555</v>
+      </c>
+      <c r="R25">
+        <v>0.302213064488</v>
+      </c>
+      <c r="S25">
+        <v>0.000216108081385094</v>
+      </c>
+      <c r="T25">
+        <v>0.0003213177925089806</v>
       </c>
     </row>
   </sheetData>
